--- a/Code/Results/Cases/Case_5_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_198/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9806184273800019</v>
+        <v>1.029585357532214</v>
       </c>
       <c r="D2">
-        <v>1.001851338113746</v>
+        <v>1.031965529203292</v>
       </c>
       <c r="E2">
-        <v>0.989252508501469</v>
+        <v>1.02934604942493</v>
       </c>
       <c r="F2">
-        <v>0.9898187617707775</v>
+        <v>1.038377287140346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03486772287934</v>
+        <v>1.031754744203483</v>
       </c>
       <c r="J2">
-        <v>1.00339470583605</v>
+        <v>1.034731317919555</v>
       </c>
       <c r="K2">
-        <v>1.013284940972597</v>
+        <v>1.034772123665849</v>
       </c>
       <c r="L2">
-        <v>1.000863631814648</v>
+        <v>1.032160227836086</v>
       </c>
       <c r="M2">
-        <v>1.001421783694111</v>
+        <v>1.041165493558144</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9880986650389864</v>
+        <v>1.0310575500719</v>
       </c>
       <c r="D3">
-        <v>1.007221969265682</v>
+        <v>1.033028217522836</v>
       </c>
       <c r="E3">
-        <v>0.9954545664839125</v>
+        <v>1.030613589053387</v>
       </c>
       <c r="F3">
-        <v>0.9975182318720971</v>
+        <v>1.039955187531475</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036906025223386</v>
+        <v>1.032068959609567</v>
       </c>
       <c r="J3">
-        <v>1.008919115679192</v>
+        <v>1.035841933759486</v>
       </c>
       <c r="K3">
-        <v>1.017763270149824</v>
+        <v>1.035642805629568</v>
       </c>
       <c r="L3">
-        <v>1.006145939271018</v>
+        <v>1.033234656961155</v>
       </c>
       <c r="M3">
-        <v>1.00818296618405</v>
+        <v>1.04255136715764</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9927897344013198</v>
+        <v>1.0320086449775</v>
       </c>
       <c r="D4">
-        <v>1.010592811236562</v>
+        <v>1.033714378219901</v>
       </c>
       <c r="E4">
-        <v>0.9993508000560939</v>
+        <v>1.03143268954541</v>
       </c>
       <c r="F4">
-        <v>1.002350784201069</v>
+        <v>1.040974837827388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038171380741897</v>
+        <v>1.032270253801178</v>
       </c>
       <c r="J4">
-        <v>1.012379695280196</v>
+        <v>1.036558705696557</v>
       </c>
       <c r="K4">
-        <v>1.020565049610097</v>
+        <v>1.036204136795907</v>
       </c>
       <c r="L4">
-        <v>1.009457066669288</v>
+        <v>1.033928259641451</v>
       </c>
       <c r="M4">
-        <v>1.012420919889056</v>
+        <v>1.043446286430385</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9947282105120602</v>
+        <v>1.032408130863589</v>
       </c>
       <c r="D5">
-        <v>1.011986262795336</v>
+        <v>1.034002492719051</v>
       </c>
       <c r="E5">
-        <v>1.00096234264074</v>
+        <v>1.03177678581158</v>
       </c>
       <c r="F5">
-        <v>1.004348667361203</v>
+        <v>1.041403182251292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038691090242214</v>
+        <v>1.032354395086768</v>
       </c>
       <c r="J5">
-        <v>1.013808683336636</v>
+        <v>1.036859594230036</v>
       </c>
       <c r="K5">
-        <v>1.02172111750014</v>
+        <v>1.036439631829918</v>
       </c>
       <c r="L5">
-        <v>1.010824857892122</v>
+        <v>1.034219466319082</v>
       </c>
       <c r="M5">
-        <v>1.014171599183002</v>
+        <v>1.043822078907442</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9950517724235254</v>
+        <v>1.032475185738518</v>
       </c>
       <c r="D6">
-        <v>1.012218878961037</v>
+        <v>1.034050848163151</v>
       </c>
       <c r="E6">
-        <v>1.001231420391854</v>
+        <v>1.031834546379265</v>
       </c>
       <c r="F6">
-        <v>1.004682200217574</v>
+        <v>1.041475084840531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038777649502973</v>
+        <v>1.032368494519754</v>
       </c>
       <c r="J6">
-        <v>1.014047141927551</v>
+        <v>1.036910088955412</v>
       </c>
       <c r="K6">
-        <v>1.021913980508244</v>
+        <v>1.036479143951879</v>
       </c>
       <c r="L6">
-        <v>1.011053134503288</v>
+        <v>1.034268338837553</v>
       </c>
       <c r="M6">
-        <v>1.014463781118363</v>
+        <v>1.043885151023348</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9928157660476796</v>
+        <v>1.03201398431068</v>
       </c>
       <c r="D7">
-        <v>1.010611521867832</v>
+        <v>1.033718229379802</v>
       </c>
       <c r="E7">
-        <v>0.9993724354762752</v>
+        <v>1.031437288366107</v>
       </c>
       <c r="F7">
-        <v>1.002377609909598</v>
+        <v>1.040980562620215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038178372517291</v>
+        <v>1.032271379995986</v>
       </c>
       <c r="J7">
-        <v>1.012398889167723</v>
+        <v>1.0365627279154</v>
       </c>
       <c r="K7">
-        <v>1.020580581217224</v>
+        <v>1.036207285406767</v>
       </c>
       <c r="L7">
-        <v>1.009475436540848</v>
+        <v>1.033932152261474</v>
       </c>
       <c r="M7">
-        <v>1.01244443187738</v>
+        <v>1.043451309474576</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9831785867969419</v>
+        <v>1.030083209567404</v>
       </c>
       <c r="D8">
-        <v>1.003688800536311</v>
+        <v>1.032324976662308</v>
       </c>
       <c r="E8">
-        <v>0.9913737103036417</v>
+        <v>1.029774647846904</v>
       </c>
       <c r="F8">
-        <v>0.9924531003393576</v>
+        <v>1.038910831874038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03556803078695</v>
+        <v>1.031861354981383</v>
       </c>
       <c r="J8">
-        <v>1.005286255494241</v>
+        <v>1.035107046407274</v>
       </c>
       <c r="K8">
-        <v>1.014819035451086</v>
+        <v>1.035066803412009</v>
       </c>
       <c r="L8">
-        <v>1.00267181210399</v>
+        <v>1.032523675692274</v>
       </c>
       <c r="M8">
-        <v>1.003736279018436</v>
+        <v>1.041634240150848</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9649513104795979</v>
+        <v>1.026669015588569</v>
       </c>
       <c r="D9">
-        <v>0.9906250565811192</v>
+        <v>1.029858433108188</v>
       </c>
       <c r="E9">
-        <v>0.9763057831224253</v>
+        <v>1.026836323082768</v>
       </c>
       <c r="F9">
-        <v>0.9737157890771589</v>
+        <v>1.035252939656885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030529184871677</v>
+        <v>1.031123254302931</v>
       </c>
       <c r="J9">
-        <v>0.9918054714768836</v>
+        <v>1.032527375057896</v>
       </c>
       <c r="K9">
-        <v>1.003872089289187</v>
+        <v>1.033041176492794</v>
       </c>
       <c r="L9">
-        <v>0.9897953477887703</v>
+        <v>1.030029086613865</v>
       </c>
       <c r="M9">
-        <v>0.9872502076629407</v>
+        <v>1.038417956368884</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9517986895398568</v>
+        <v>1.02438439114048</v>
       </c>
       <c r="D10">
-        <v>0.9812296901430022</v>
+        <v>1.028206089816871</v>
       </c>
       <c r="E10">
-        <v>0.9654830592591408</v>
+        <v>1.024871346474503</v>
       </c>
       <c r="F10">
-        <v>0.9602193298625469</v>
+        <v>1.032806588049648</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026828983407043</v>
+        <v>1.030620594051657</v>
       </c>
       <c r="J10">
-        <v>0.9820644321871067</v>
+        <v>1.030797447820595</v>
       </c>
       <c r="K10">
-        <v>0.9959463252094558</v>
+        <v>1.031679768205416</v>
       </c>
       <c r="L10">
-        <v>0.9805048064209277</v>
+        <v>1.028357183384409</v>
       </c>
       <c r="M10">
-        <v>0.9753460059865579</v>
+        <v>1.036263635243923</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9458224386943361</v>
+        <v>1.023393001303178</v>
       </c>
       <c r="D11">
-        <v>0.9769709670099953</v>
+        <v>1.027488650881246</v>
       </c>
       <c r="E11">
-        <v>0.9605796938381786</v>
+        <v>1.024018965605556</v>
       </c>
       <c r="F11">
-        <v>0.9540929511701284</v>
+        <v>1.031745334443221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025133763615727</v>
+        <v>1.03040039798856</v>
       </c>
       <c r="J11">
-        <v>0.9776366553302658</v>
+        <v>1.03004588567465</v>
       </c>
       <c r="K11">
-        <v>0.992340649033377</v>
+        <v>1.031087596895346</v>
       </c>
       <c r="L11">
-        <v>0.9762853819369965</v>
+        <v>1.027631060628078</v>
       </c>
       <c r="M11">
-        <v>0.9699358376481736</v>
+        <v>1.035328282748688</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9435560058059319</v>
+        <v>1.023024425284482</v>
       </c>
       <c r="D12">
-        <v>0.9753577179251776</v>
+        <v>1.02722186160669</v>
       </c>
       <c r="E12">
-        <v>0.9587225063731585</v>
+        <v>1.023702116182853</v>
       </c>
       <c r="F12">
-        <v>0.9517705344130214</v>
+        <v>1.031350831929353</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024488902576762</v>
+        <v>1.030318223319004</v>
       </c>
       <c r="J12">
-        <v>0.9759573626035138</v>
+        <v>1.029766340790519</v>
       </c>
       <c r="K12">
-        <v>0.9909727589689796</v>
+        <v>1.030867231346013</v>
       </c>
       <c r="L12">
-        <v>0.9746856764700423</v>
+        <v>1.027361012803858</v>
       </c>
       <c r="M12">
-        <v>0.9678839812208658</v>
+        <v>1.034980463910071</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9440443484293533</v>
+        <v>1.02310350116142</v>
       </c>
       <c r="D13">
-        <v>0.9757052333440484</v>
+        <v>1.027279102499815</v>
       </c>
       <c r="E13">
-        <v>0.9591225593103284</v>
+        <v>1.02377009230544</v>
       </c>
       <c r="F13">
-        <v>0.9522708962809115</v>
+        <v>1.031435468053406</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024627935686378</v>
+        <v>1.030335867480889</v>
       </c>
       <c r="J13">
-        <v>0.9763191976874332</v>
+        <v>1.029826321478955</v>
       </c>
       <c r="K13">
-        <v>0.9912675129813372</v>
+        <v>1.030914518995697</v>
       </c>
       <c r="L13">
-        <v>0.9750303369019552</v>
+        <v>1.02741895417286</v>
       </c>
       <c r="M13">
-        <v>0.9683260930780685</v>
+        <v>1.035055089903405</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9456360724659163</v>
+        <v>1.023362541474316</v>
       </c>
       <c r="D14">
-        <v>0.9768382725770662</v>
+        <v>1.027466604159089</v>
       </c>
       <c r="E14">
-        <v>0.9604269300902059</v>
+        <v>1.02399277961266</v>
       </c>
       <c r="F14">
-        <v>0.953901961984128</v>
+        <v>1.031712731036809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02508077647828</v>
+        <v>1.030393613252647</v>
       </c>
       <c r="J14">
-        <v>0.9774985701507228</v>
+        <v>1.030022786224098</v>
       </c>
       <c r="K14">
-        <v>0.9922281774271404</v>
+        <v>1.031069389738522</v>
       </c>
       <c r="L14">
-        <v>0.9761538294040046</v>
+        <v>1.027608745230884</v>
       </c>
       <c r="M14">
-        <v>0.9697671174816602</v>
+        <v>1.03529953988813</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.946610471842989</v>
+        <v>1.023522100792903</v>
       </c>
       <c r="D15">
-        <v>0.9775321297064481</v>
+        <v>1.02758209013281</v>
       </c>
       <c r="E15">
-        <v>0.9612257392910598</v>
+        <v>1.024129952971578</v>
       </c>
       <c r="F15">
-        <v>0.9549005708954755</v>
+        <v>1.031883521103053</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025357736004643</v>
+        <v>1.030429141368905</v>
       </c>
       <c r="J15">
-        <v>0.9782205330671934</v>
+        <v>1.030143783915055</v>
       </c>
       <c r="K15">
-        <v>0.9928162072152765</v>
+        <v>1.031164756657562</v>
       </c>
       <c r="L15">
-        <v>0.9768416603110646</v>
+        <v>1.027725637382841</v>
       </c>
       <c r="M15">
-        <v>0.9706492521776692</v>
+        <v>1.035450102000656</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9521890335854241</v>
+        <v>1.02445014069788</v>
       </c>
       <c r="D16">
-        <v>0.9815080881377499</v>
+        <v>1.028253662038787</v>
       </c>
       <c r="E16">
-        <v>0.9658036392264892</v>
+        <v>1.024927883299134</v>
       </c>
       <c r="F16">
-        <v>0.9606196084829628</v>
+        <v>1.032876977647409</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026939430695578</v>
+        <v>1.030635154009346</v>
       </c>
       <c r="J16">
-        <v>0.9823536137958835</v>
+        <v>1.030847273436553</v>
       </c>
       <c r="K16">
-        <v>0.9961817575049992</v>
+        <v>1.031719011911539</v>
       </c>
       <c r="L16">
-        <v>0.9807804566615457</v>
+        <v>1.028405327340489</v>
       </c>
       <c r="M16">
-        <v>0.9756993574580777</v>
+        <v>1.036325657699175</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9556101774134591</v>
+        <v>1.025031698153301</v>
       </c>
       <c r="D17">
-        <v>0.98394928002985</v>
+        <v>1.028674391807864</v>
       </c>
       <c r="E17">
-        <v>0.9686149672118081</v>
+        <v>1.025427988626992</v>
       </c>
       <c r="F17">
-        <v>0.9641285141738414</v>
+        <v>1.033499612891702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027905883719565</v>
+        <v>1.030763698410493</v>
       </c>
       <c r="J17">
-        <v>0.9848879541322969</v>
+        <v>1.031287881795539</v>
       </c>
       <c r="K17">
-        <v>0.9982447136881378</v>
+        <v>1.032065962390352</v>
       </c>
       <c r="L17">
-        <v>0.9831966162786395</v>
+        <v>1.028831091423682</v>
       </c>
       <c r="M17">
-        <v>0.9787961582581879</v>
+        <v>1.036874190328301</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9575788778004394</v>
+        <v>1.025370705668898</v>
       </c>
       <c r="D18">
-        <v>0.9853550135383179</v>
+        <v>1.028919607302784</v>
       </c>
       <c r="E18">
-        <v>0.9702340665499231</v>
+        <v>1.02571954415783</v>
       </c>
       <c r="F18">
-        <v>0.9661482869992787</v>
+        <v>1.033862596375862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028460715368623</v>
+        <v>1.030838431186672</v>
       </c>
       <c r="J18">
-        <v>0.9863461756302363</v>
+        <v>1.031544641195684</v>
       </c>
       <c r="K18">
-        <v>0.9994314193001068</v>
+        <v>1.032268075230539</v>
       </c>
       <c r="L18">
-        <v>0.9845871716690721</v>
+        <v>1.029079222732323</v>
       </c>
       <c r="M18">
-        <v>0.98057810042567</v>
+        <v>1.037193897872349</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9582457313370635</v>
+        <v>1.025486263961714</v>
       </c>
       <c r="D19">
-        <v>0.9858313275470919</v>
+        <v>1.029003187547873</v>
       </c>
       <c r="E19">
-        <v>0.9707827178493775</v>
+        <v>1.025818932257437</v>
       </c>
       <c r="F19">
-        <v>0.9668325359093125</v>
+        <v>1.03398633259034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02864842573085</v>
+        <v>1.03086387164562</v>
       </c>
       <c r="J19">
-        <v>0.9868400833673534</v>
+        <v>1.031632149012393</v>
       </c>
       <c r="K19">
-        <v>0.9998333123374358</v>
+        <v>1.032336946966357</v>
       </c>
       <c r="L19">
-        <v>0.9850582162607022</v>
+        <v>1.029163793721981</v>
       </c>
       <c r="M19">
-        <v>0.9811816723345048</v>
+        <v>1.037302869065346</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9552459221079689</v>
+        <v>1.024969323825083</v>
       </c>
       <c r="D20">
-        <v>0.9836892615958268</v>
+        <v>1.028629271080998</v>
       </c>
       <c r="E20">
-        <v>0.9683155015421741</v>
+        <v>1.025374347359255</v>
       </c>
       <c r="F20">
-        <v>0.9637548552367303</v>
+        <v>1.033432829657382</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027803119569375</v>
+        <v>1.030749932170865</v>
       </c>
       <c r="J20">
-        <v>0.9846181347563242</v>
+        <v>1.031240633562286</v>
       </c>
       <c r="K20">
-        <v>0.9980251099386147</v>
+        <v>1.032028764560327</v>
       </c>
       <c r="L20">
-        <v>0.9829393442015399</v>
+        <v>1.028785432700836</v>
       </c>
       <c r="M20">
-        <v>0.9784664477872909</v>
+        <v>1.036815363092185</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9451686736184522</v>
+        <v>1.023286269734947</v>
       </c>
       <c r="D21">
-        <v>0.9765055107836207</v>
+        <v>1.027411397934027</v>
       </c>
       <c r="E21">
-        <v>0.9600438437008874</v>
+        <v>1.023927210355002</v>
       </c>
       <c r="F21">
-        <v>0.9534229843457382</v>
+        <v>1.03163109251852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024947855773719</v>
+        <v>1.03037661918241</v>
       </c>
       <c r="J21">
-        <v>0.9771522570707346</v>
+        <v>1.029964942832469</v>
       </c>
       <c r="K21">
-        <v>0.9919460963139488</v>
+        <v>1.031023795435649</v>
       </c>
       <c r="L21">
-        <v>0.9758239092027935</v>
+        <v>1.027552865752172</v>
       </c>
       <c r="M21">
-        <v>0.9693439728086105</v>
+        <v>1.035227566224446</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9385605219095821</v>
+        <v>1.022226154661403</v>
       </c>
       <c r="D22">
-        <v>0.9718056434192075</v>
+        <v>1.02664393131335</v>
       </c>
       <c r="E22">
-        <v>0.9546336895844534</v>
+        <v>1.023015961968547</v>
       </c>
       <c r="F22">
-        <v>0.9466534508696925</v>
+        <v>1.030496495272164</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023064076364423</v>
+        <v>1.030139679348135</v>
       </c>
       <c r="J22">
-        <v>0.972255994785403</v>
+        <v>1.029160656287496</v>
       </c>
       <c r="K22">
-        <v>0.9879571198255986</v>
+        <v>1.030389575451596</v>
       </c>
       <c r="L22">
-        <v>0.9711608114909209</v>
+        <v>1.026775969272902</v>
       </c>
       <c r="M22">
-        <v>0.9633613425902501</v>
+        <v>1.034227010102583</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9420910559842142</v>
+        <v>1.02278832610357</v>
       </c>
       <c r="D23">
-        <v>0.9743155186165363</v>
+        <v>1.027050946818111</v>
       </c>
       <c r="E23">
-        <v>0.957522777114175</v>
+        <v>1.023499164717172</v>
       </c>
       <c r="F23">
-        <v>0.9502696708919499</v>
+        <v>1.031098138255298</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02407154783421</v>
+        <v>1.030265497142941</v>
       </c>
       <c r="J23">
-        <v>0.9748719125041045</v>
+        <v>1.029587235492507</v>
       </c>
       <c r="K23">
-        <v>0.9900884901353251</v>
+        <v>1.030726012548531</v>
       </c>
       <c r="L23">
-        <v>0.9736518332826284</v>
+        <v>1.027188002124972</v>
       </c>
       <c r="M23">
-        <v>0.9665577069441273</v>
+        <v>1.034757639707309</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.955410595883338</v>
+        <v>1.024997508733108</v>
       </c>
       <c r="D24">
-        <v>0.9838068086884424</v>
+        <v>1.028649659779711</v>
       </c>
       <c r="E24">
-        <v>0.9684508809191356</v>
+        <v>1.025398585995033</v>
       </c>
       <c r="F24">
-        <v>0.9639237784694491</v>
+        <v>1.033463006710884</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027849581630373</v>
+        <v>1.030756153299114</v>
       </c>
       <c r="J24">
-        <v>0.9847401161458211</v>
+        <v>1.031261983746907</v>
       </c>
       <c r="K24">
-        <v>0.998124390480044</v>
+        <v>1.032045573454417</v>
       </c>
       <c r="L24">
-        <v>0.9830556521070981</v>
+        <v>1.028806064560431</v>
       </c>
       <c r="M24">
-        <v>0.978615504778296</v>
+        <v>1.036841945336744</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9698267186645489</v>
+        <v>1.027553128538659</v>
       </c>
       <c r="D25">
-        <v>0.994114869102079</v>
+        <v>1.030497479767423</v>
       </c>
       <c r="E25">
-        <v>0.9803283072144416</v>
+        <v>1.027596998509574</v>
       </c>
       <c r="F25">
-        <v>0.9787236217795595</v>
+        <v>1.036199921239623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031888257650563</v>
+        <v>1.031315929619931</v>
       </c>
       <c r="J25">
-        <v>0.9954140221395005</v>
+        <v>1.03319604466807</v>
       </c>
       <c r="K25">
-        <v>1.006805236346689</v>
+        <v>1.033566767144222</v>
       </c>
       <c r="L25">
-        <v>0.9932398751264623</v>
+        <v>1.030675532634671</v>
       </c>
       <c r="M25">
-        <v>0.9916614569038203</v>
+        <v>1.039251194214635</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_198/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029585357532214</v>
+        <v>0.9806184273800004</v>
       </c>
       <c r="D2">
-        <v>1.031965529203292</v>
+        <v>1.001851338113745</v>
       </c>
       <c r="E2">
-        <v>1.02934604942493</v>
+        <v>0.9892525085014677</v>
       </c>
       <c r="F2">
-        <v>1.038377287140346</v>
+        <v>0.9898187617707765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031754744203483</v>
+        <v>1.03486772287934</v>
       </c>
       <c r="J2">
-        <v>1.034731317919555</v>
+        <v>1.003394705836048</v>
       </c>
       <c r="K2">
-        <v>1.034772123665849</v>
+        <v>1.013284940972596</v>
       </c>
       <c r="L2">
-        <v>1.032160227836086</v>
+        <v>1.000863631814647</v>
       </c>
       <c r="M2">
-        <v>1.041165493558144</v>
+        <v>1.00142178369411</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0310575500719</v>
+        <v>0.9880986650389869</v>
       </c>
       <c r="D3">
-        <v>1.033028217522836</v>
+        <v>1.007221969265683</v>
       </c>
       <c r="E3">
-        <v>1.030613589053387</v>
+        <v>0.9954545664839127</v>
       </c>
       <c r="F3">
-        <v>1.039955187531475</v>
+        <v>0.9975182318720975</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032068959609567</v>
+        <v>1.036906025223386</v>
       </c>
       <c r="J3">
-        <v>1.035841933759486</v>
+        <v>1.008919115679193</v>
       </c>
       <c r="K3">
-        <v>1.035642805629568</v>
+        <v>1.017763270149825</v>
       </c>
       <c r="L3">
-        <v>1.033234656961155</v>
+        <v>1.006145939271018</v>
       </c>
       <c r="M3">
-        <v>1.04255136715764</v>
+        <v>1.008182966184051</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0320086449775</v>
+        <v>0.9927897344013179</v>
       </c>
       <c r="D4">
-        <v>1.033714378219901</v>
+        <v>1.010592811236561</v>
       </c>
       <c r="E4">
-        <v>1.03143268954541</v>
+        <v>0.9993508000560927</v>
       </c>
       <c r="F4">
-        <v>1.040974837827388</v>
+        <v>1.002350784201067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032270253801178</v>
+        <v>1.038171380741896</v>
       </c>
       <c r="J4">
-        <v>1.036558705696557</v>
+        <v>1.012379695280194</v>
       </c>
       <c r="K4">
-        <v>1.036204136795907</v>
+        <v>1.020565049610096</v>
       </c>
       <c r="L4">
-        <v>1.033928259641451</v>
+        <v>1.009457066669287</v>
       </c>
       <c r="M4">
-        <v>1.043446286430385</v>
+        <v>1.012420919889055</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032408130863589</v>
+        <v>0.9947282105120576</v>
       </c>
       <c r="D5">
-        <v>1.034002492719051</v>
+        <v>1.011986262795334</v>
       </c>
       <c r="E5">
-        <v>1.03177678581158</v>
+        <v>1.000962342640737</v>
       </c>
       <c r="F5">
-        <v>1.041403182251292</v>
+        <v>1.004348667361201</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032354395086768</v>
+        <v>1.038691090242213</v>
       </c>
       <c r="J5">
-        <v>1.036859594230036</v>
+        <v>1.013808683336633</v>
       </c>
       <c r="K5">
-        <v>1.036439631829918</v>
+        <v>1.021721117500138</v>
       </c>
       <c r="L5">
-        <v>1.034219466319082</v>
+        <v>1.01082485789212</v>
       </c>
       <c r="M5">
-        <v>1.043822078907442</v>
+        <v>1.014171599182999</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032475185738518</v>
+        <v>0.9950517724235241</v>
       </c>
       <c r="D6">
-        <v>1.034050848163151</v>
+        <v>1.012218878961036</v>
       </c>
       <c r="E6">
-        <v>1.031834546379265</v>
+        <v>1.001231420391853</v>
       </c>
       <c r="F6">
-        <v>1.041475084840531</v>
+        <v>1.004682200217573</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032368494519754</v>
+        <v>1.038777649502972</v>
       </c>
       <c r="J6">
-        <v>1.036910088955412</v>
+        <v>1.01404714192755</v>
       </c>
       <c r="K6">
-        <v>1.036479143951879</v>
+        <v>1.021913980508242</v>
       </c>
       <c r="L6">
-        <v>1.034268338837553</v>
+        <v>1.011053134503287</v>
       </c>
       <c r="M6">
-        <v>1.043885151023348</v>
+        <v>1.014463781118361</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03201398431068</v>
+        <v>0.9928157660476787</v>
       </c>
       <c r="D7">
-        <v>1.033718229379802</v>
+        <v>1.01061152186783</v>
       </c>
       <c r="E7">
-        <v>1.031437288366107</v>
+        <v>0.9993724354762739</v>
       </c>
       <c r="F7">
-        <v>1.040980562620215</v>
+        <v>1.002377609909597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032271379995986</v>
+        <v>1.03817837251729</v>
       </c>
       <c r="J7">
-        <v>1.0365627279154</v>
+        <v>1.012398889167722</v>
       </c>
       <c r="K7">
-        <v>1.036207285406767</v>
+        <v>1.020580581217223</v>
       </c>
       <c r="L7">
-        <v>1.033932152261474</v>
+        <v>1.009475436540847</v>
       </c>
       <c r="M7">
-        <v>1.043451309474576</v>
+        <v>1.012444431877379</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030083209567404</v>
+        <v>0.9831785867969424</v>
       </c>
       <c r="D8">
-        <v>1.032324976662308</v>
+        <v>1.003688800536311</v>
       </c>
       <c r="E8">
-        <v>1.029774647846904</v>
+        <v>0.9913737103036423</v>
       </c>
       <c r="F8">
-        <v>1.038910831874038</v>
+        <v>0.9924531003393583</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031861354981383</v>
+        <v>1.03556803078695</v>
       </c>
       <c r="J8">
-        <v>1.035107046407274</v>
+        <v>1.005286255494242</v>
       </c>
       <c r="K8">
-        <v>1.035066803412009</v>
+        <v>1.014819035451086</v>
       </c>
       <c r="L8">
-        <v>1.032523675692274</v>
+        <v>1.002671812103991</v>
       </c>
       <c r="M8">
-        <v>1.041634240150848</v>
+        <v>1.003736279018437</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026669015588569</v>
+        <v>0.9649513104795986</v>
       </c>
       <c r="D9">
-        <v>1.029858433108188</v>
+        <v>0.9906250565811197</v>
       </c>
       <c r="E9">
-        <v>1.026836323082768</v>
+        <v>0.9763057831224257</v>
       </c>
       <c r="F9">
-        <v>1.035252939656885</v>
+        <v>0.9737157890771595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031123254302931</v>
+        <v>1.030529184871677</v>
       </c>
       <c r="J9">
-        <v>1.032527375057896</v>
+        <v>0.9918054714768842</v>
       </c>
       <c r="K9">
-        <v>1.033041176492794</v>
+        <v>1.003872089289187</v>
       </c>
       <c r="L9">
-        <v>1.030029086613865</v>
+        <v>0.9897953477887708</v>
       </c>
       <c r="M9">
-        <v>1.038417956368884</v>
+        <v>0.9872502076629412</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02438439114048</v>
+        <v>0.9517986895398584</v>
       </c>
       <c r="D10">
-        <v>1.028206089816871</v>
+        <v>0.9812296901430037</v>
       </c>
       <c r="E10">
-        <v>1.024871346474503</v>
+        <v>0.9654830592591425</v>
       </c>
       <c r="F10">
-        <v>1.032806588049648</v>
+        <v>0.9602193298625481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030620594051657</v>
+        <v>1.026828983407043</v>
       </c>
       <c r="J10">
-        <v>1.030797447820595</v>
+        <v>0.9820644321871084</v>
       </c>
       <c r="K10">
-        <v>1.031679768205416</v>
+        <v>0.9959463252094571</v>
       </c>
       <c r="L10">
-        <v>1.028357183384409</v>
+        <v>0.980504806420929</v>
       </c>
       <c r="M10">
-        <v>1.036263635243923</v>
+        <v>0.9753460059865593</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023393001303178</v>
+        <v>0.9458224386943372</v>
       </c>
       <c r="D11">
-        <v>1.027488650881246</v>
+        <v>0.9769709670099957</v>
       </c>
       <c r="E11">
-        <v>1.024018965605556</v>
+        <v>0.9605796938381796</v>
       </c>
       <c r="F11">
-        <v>1.031745334443221</v>
+        <v>0.9540929511701296</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03040039798856</v>
+        <v>1.025133763615727</v>
       </c>
       <c r="J11">
-        <v>1.03004588567465</v>
+        <v>0.977636655330267</v>
       </c>
       <c r="K11">
-        <v>1.031087596895346</v>
+        <v>0.9923406490333778</v>
       </c>
       <c r="L11">
-        <v>1.027631060628078</v>
+        <v>0.9762853819369974</v>
       </c>
       <c r="M11">
-        <v>1.035328282748688</v>
+        <v>0.9699358376481748</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023024425284482</v>
+        <v>0.9435560058059307</v>
       </c>
       <c r="D12">
-        <v>1.02722186160669</v>
+        <v>0.9753577179251767</v>
       </c>
       <c r="E12">
-        <v>1.023702116182853</v>
+        <v>0.9587225063731571</v>
       </c>
       <c r="F12">
-        <v>1.031350831929353</v>
+        <v>0.9517705344130207</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030318223319004</v>
+        <v>1.024488902576761</v>
       </c>
       <c r="J12">
-        <v>1.029766340790519</v>
+        <v>0.9759573626035126</v>
       </c>
       <c r="K12">
-        <v>1.030867231346013</v>
+        <v>0.9909727589689786</v>
       </c>
       <c r="L12">
-        <v>1.027361012803858</v>
+        <v>0.974685676470041</v>
       </c>
       <c r="M12">
-        <v>1.034980463910071</v>
+        <v>0.9678839812208653</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02310350116142</v>
+        <v>0.9440443484293547</v>
       </c>
       <c r="D13">
-        <v>1.027279102499815</v>
+        <v>0.9757052333440496</v>
       </c>
       <c r="E13">
-        <v>1.02377009230544</v>
+        <v>0.9591225593103299</v>
       </c>
       <c r="F13">
-        <v>1.031435468053406</v>
+        <v>0.9522708962809129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030335867480889</v>
+        <v>1.024627935686378</v>
       </c>
       <c r="J13">
-        <v>1.029826321478955</v>
+        <v>0.9763191976874347</v>
       </c>
       <c r="K13">
-        <v>1.030914518995697</v>
+        <v>0.9912675129813385</v>
       </c>
       <c r="L13">
-        <v>1.02741895417286</v>
+        <v>0.9750303369019566</v>
       </c>
       <c r="M13">
-        <v>1.035055089903405</v>
+        <v>0.9683260930780702</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023362541474316</v>
+        <v>0.9456360724659169</v>
       </c>
       <c r="D14">
-        <v>1.027466604159089</v>
+        <v>0.9768382725770666</v>
       </c>
       <c r="E14">
-        <v>1.02399277961266</v>
+        <v>0.9604269300902061</v>
       </c>
       <c r="F14">
-        <v>1.031712731036809</v>
+        <v>0.9539019619841282</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030393613252647</v>
+        <v>1.02508077647828</v>
       </c>
       <c r="J14">
-        <v>1.030022786224098</v>
+        <v>0.9774985701507233</v>
       </c>
       <c r="K14">
-        <v>1.031069389738522</v>
+        <v>0.9922281774271409</v>
       </c>
       <c r="L14">
-        <v>1.027608745230884</v>
+        <v>0.9761538294040049</v>
       </c>
       <c r="M14">
-        <v>1.03529953988813</v>
+        <v>0.9697671174816603</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023522100792903</v>
+        <v>0.9466104718429911</v>
       </c>
       <c r="D15">
-        <v>1.02758209013281</v>
+        <v>0.9775321297064493</v>
       </c>
       <c r="E15">
-        <v>1.024129952971578</v>
+        <v>0.9612257392910618</v>
       </c>
       <c r="F15">
-        <v>1.031883521103053</v>
+        <v>0.9549005708954771</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030429141368905</v>
+        <v>1.025357736004643</v>
       </c>
       <c r="J15">
-        <v>1.030143783915055</v>
+        <v>0.9782205330671951</v>
       </c>
       <c r="K15">
-        <v>1.031164756657562</v>
+        <v>0.9928162072152777</v>
       </c>
       <c r="L15">
-        <v>1.027725637382841</v>
+        <v>0.9768416603110661</v>
       </c>
       <c r="M15">
-        <v>1.035450102000656</v>
+        <v>0.9706492521776707</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02445014069788</v>
+        <v>0.9521890335854253</v>
       </c>
       <c r="D16">
-        <v>1.028253662038787</v>
+        <v>0.9815080881377506</v>
       </c>
       <c r="E16">
-        <v>1.024927883299134</v>
+        <v>0.9658036392264902</v>
       </c>
       <c r="F16">
-        <v>1.032876977647409</v>
+        <v>0.9606196084829638</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030635154009346</v>
+        <v>1.026939430695579</v>
       </c>
       <c r="J16">
-        <v>1.030847273436553</v>
+        <v>0.9823536137958846</v>
       </c>
       <c r="K16">
-        <v>1.031719011911539</v>
+        <v>0.996181757505</v>
       </c>
       <c r="L16">
-        <v>1.028405327340489</v>
+        <v>0.9807804566615467</v>
       </c>
       <c r="M16">
-        <v>1.036325657699175</v>
+        <v>0.9756993574580786</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025031698153301</v>
+        <v>0.9556101774134595</v>
       </c>
       <c r="D17">
-        <v>1.028674391807864</v>
+        <v>0.9839492800298506</v>
       </c>
       <c r="E17">
-        <v>1.025427988626992</v>
+        <v>0.9686149672118083</v>
       </c>
       <c r="F17">
-        <v>1.033499612891702</v>
+        <v>0.964128514173842</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030763698410493</v>
+        <v>1.027905883719565</v>
       </c>
       <c r="J17">
-        <v>1.031287881795539</v>
+        <v>0.9848879541322973</v>
       </c>
       <c r="K17">
-        <v>1.032065962390352</v>
+        <v>0.9982447136881384</v>
       </c>
       <c r="L17">
-        <v>1.028831091423682</v>
+        <v>0.9831966162786399</v>
       </c>
       <c r="M17">
-        <v>1.036874190328301</v>
+        <v>0.9787961582581884</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025370705668898</v>
+        <v>0.9575788778004395</v>
       </c>
       <c r="D18">
-        <v>1.028919607302784</v>
+        <v>0.9853550135383182</v>
       </c>
       <c r="E18">
-        <v>1.02571954415783</v>
+        <v>0.9702340665499236</v>
       </c>
       <c r="F18">
-        <v>1.033862596375862</v>
+        <v>0.9661482869992791</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030838431186672</v>
+        <v>1.028460715368623</v>
       </c>
       <c r="J18">
-        <v>1.031544641195684</v>
+        <v>0.9863461756302367</v>
       </c>
       <c r="K18">
-        <v>1.032268075230539</v>
+        <v>0.9994314193001073</v>
       </c>
       <c r="L18">
-        <v>1.029079222732323</v>
+        <v>0.9845871716690725</v>
       </c>
       <c r="M18">
-        <v>1.037193897872349</v>
+        <v>0.9805781004256706</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025486263961714</v>
+        <v>0.9582457313370643</v>
       </c>
       <c r="D19">
-        <v>1.029003187547873</v>
+        <v>0.9858313275470929</v>
       </c>
       <c r="E19">
-        <v>1.025818932257437</v>
+        <v>0.9707827178493782</v>
       </c>
       <c r="F19">
-        <v>1.03398633259034</v>
+        <v>0.9668325359093138</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03086387164562</v>
+        <v>1.028648425730851</v>
       </c>
       <c r="J19">
-        <v>1.031632149012393</v>
+        <v>0.9868400833673544</v>
       </c>
       <c r="K19">
-        <v>1.032336946966357</v>
+        <v>0.9998333123374368</v>
       </c>
       <c r="L19">
-        <v>1.029163793721981</v>
+        <v>0.985058216260703</v>
       </c>
       <c r="M19">
-        <v>1.037302869065346</v>
+        <v>0.9811816723345061</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024969323825083</v>
+        <v>0.9552459221079697</v>
       </c>
       <c r="D20">
-        <v>1.028629271080998</v>
+        <v>0.9836892615958274</v>
       </c>
       <c r="E20">
-        <v>1.025374347359255</v>
+        <v>0.9683155015421745</v>
       </c>
       <c r="F20">
-        <v>1.033432829657382</v>
+        <v>0.9637548552367308</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030749932170865</v>
+        <v>1.027803119569375</v>
       </c>
       <c r="J20">
-        <v>1.031240633562286</v>
+        <v>0.9846181347563249</v>
       </c>
       <c r="K20">
-        <v>1.032028764560327</v>
+        <v>0.9980251099386154</v>
       </c>
       <c r="L20">
-        <v>1.028785432700836</v>
+        <v>0.9829393442015404</v>
       </c>
       <c r="M20">
-        <v>1.036815363092185</v>
+        <v>0.9784664477872915</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023286269734947</v>
+        <v>0.9451686736184516</v>
       </c>
       <c r="D21">
-        <v>1.027411397934027</v>
+        <v>0.9765055107836204</v>
       </c>
       <c r="E21">
-        <v>1.023927210355002</v>
+        <v>0.9600438437008867</v>
       </c>
       <c r="F21">
-        <v>1.03163109251852</v>
+        <v>0.9534229843457376</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03037661918241</v>
+        <v>1.024947855773719</v>
       </c>
       <c r="J21">
-        <v>1.029964942832469</v>
+        <v>0.9771522570707341</v>
       </c>
       <c r="K21">
-        <v>1.031023795435649</v>
+        <v>0.9919460963139487</v>
       </c>
       <c r="L21">
-        <v>1.027552865752172</v>
+        <v>0.9758239092027929</v>
       </c>
       <c r="M21">
-        <v>1.035227566224446</v>
+        <v>0.9693439728086102</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022226154661403</v>
+        <v>0.9385605219095831</v>
       </c>
       <c r="D22">
-        <v>1.02664393131335</v>
+        <v>0.9718056434192084</v>
       </c>
       <c r="E22">
-        <v>1.023015961968547</v>
+        <v>0.9546336895844544</v>
       </c>
       <c r="F22">
-        <v>1.030496495272164</v>
+        <v>0.9466534508696934</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030139679348135</v>
+        <v>1.023064076364423</v>
       </c>
       <c r="J22">
-        <v>1.029160656287496</v>
+        <v>0.9722559947854039</v>
       </c>
       <c r="K22">
-        <v>1.030389575451596</v>
+        <v>0.9879571198255996</v>
       </c>
       <c r="L22">
-        <v>1.026775969272902</v>
+        <v>0.9711608114909218</v>
       </c>
       <c r="M22">
-        <v>1.034227010102583</v>
+        <v>0.9633613425902511</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02278832610357</v>
+        <v>0.9420910559842137</v>
       </c>
       <c r="D23">
-        <v>1.027050946818111</v>
+        <v>0.9743155186165356</v>
       </c>
       <c r="E23">
-        <v>1.023499164717172</v>
+        <v>0.9575227771141741</v>
       </c>
       <c r="F23">
-        <v>1.031098138255298</v>
+        <v>0.950269670891949</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030265497142941</v>
+        <v>1.024071547834209</v>
       </c>
       <c r="J23">
-        <v>1.029587235492507</v>
+        <v>0.9748719125041038</v>
       </c>
       <c r="K23">
-        <v>1.030726012548531</v>
+        <v>0.9900884901353243</v>
       </c>
       <c r="L23">
-        <v>1.027188002124972</v>
+        <v>0.9736518332826274</v>
       </c>
       <c r="M23">
-        <v>1.034757639707309</v>
+        <v>0.9665577069441267</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024997508733108</v>
+        <v>0.9554105958833389</v>
       </c>
       <c r="D24">
-        <v>1.028649659779711</v>
+        <v>0.9838068086884426</v>
       </c>
       <c r="E24">
-        <v>1.025398585995033</v>
+        <v>0.9684508809191359</v>
       </c>
       <c r="F24">
-        <v>1.033463006710884</v>
+        <v>0.9639237784694491</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030756153299114</v>
+        <v>1.027849581630373</v>
       </c>
       <c r="J24">
-        <v>1.031261983746907</v>
+        <v>0.9847401161458216</v>
       </c>
       <c r="K24">
-        <v>1.032045573454417</v>
+        <v>0.9981243904800443</v>
       </c>
       <c r="L24">
-        <v>1.028806064560431</v>
+        <v>0.9830556521070988</v>
       </c>
       <c r="M24">
-        <v>1.036841945336744</v>
+        <v>0.9786155047782961</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027553128538659</v>
+        <v>0.9698267186645482</v>
       </c>
       <c r="D25">
-        <v>1.030497479767423</v>
+        <v>0.9941148691020785</v>
       </c>
       <c r="E25">
-        <v>1.027596998509574</v>
+        <v>0.9803283072144411</v>
       </c>
       <c r="F25">
-        <v>1.036199921239623</v>
+        <v>0.9787236217795585</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031315929619931</v>
+        <v>1.031888257650563</v>
       </c>
       <c r="J25">
-        <v>1.03319604466807</v>
+        <v>0.9954140221394997</v>
       </c>
       <c r="K25">
-        <v>1.033566767144222</v>
+        <v>1.006805236346688</v>
       </c>
       <c r="L25">
-        <v>1.030675532634671</v>
+        <v>0.9932398751264618</v>
       </c>
       <c r="M25">
-        <v>1.039251194214635</v>
+        <v>0.9916614569038195</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
